--- a/parsing공시자료/output.xlsx
+++ b/parsing공시자료/output.xlsx
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-144992202</v>
+        <v>-915122338</v>
       </c>
       <c r="I3" t="n">
-        <v>-122626931</v>
+        <v>-398771002</v>
       </c>
       <c r="J3" t="n">
-        <v>-28703575</v>
+        <v>-1332652528</v>
       </c>
     </row>
     <row r="4">
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-144992202</v>
+        <v>-915122338</v>
       </c>
       <c r="I5" t="n">
-        <v>-122626931</v>
+        <v>-398771002</v>
       </c>
       <c r="J5" t="n">
-        <v>-28703575</v>
+        <v>-1332652528</v>
       </c>
     </row>
     <row r="6">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-144992202</v>
+        <v>-915122338</v>
       </c>
       <c r="I7" t="n">
-        <v>-122626931</v>
+        <v>-398771002</v>
       </c>
       <c r="J7" t="n">
-        <v>-28703575</v>
+        <v>-1332652528</v>
       </c>
     </row>
     <row r="8">
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-144992202</v>
+        <v>-915122338</v>
       </c>
       <c r="I11" t="n">
-        <v>-122626931</v>
+        <v>-398771002</v>
       </c>
       <c r="J11" t="n">
-        <v>-28703575</v>
+        <v>-1332652528</v>
       </c>
     </row>
     <row r="12">
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-144992202</v>
+        <v>-915122338</v>
       </c>
       <c r="I13" t="n">
-        <v>-122626931</v>
+        <v>-398771002</v>
       </c>
       <c r="J13" t="n">
-        <v>-28703575</v>
+        <v>-1332652528</v>
       </c>
     </row>
     <row r="14">
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-100981222</v>
+        <v>-915122338</v>
       </c>
       <c r="I15" t="n">
-        <v>-128070970</v>
+        <v>-398771002</v>
       </c>
       <c r="J15" t="n">
-        <v>-98927431</v>
+        <v>-1332652528</v>
       </c>
     </row>
     <row r="16">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-13278998700</v>
+        <v>-915122338</v>
       </c>
       <c r="I17" t="n">
-        <v>-7706965272</v>
+        <v>-398771002</v>
       </c>
       <c r="J17" t="n">
-        <v>-3249732702</v>
+        <v>-1332652528</v>
       </c>
     </row>
     <row r="18">
@@ -1100,13 +1100,13 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-2298925384</v>
+        <v>-915122338</v>
       </c>
       <c r="I19" t="n">
-        <v>-4369799545</v>
+        <v>-398771002</v>
       </c>
       <c r="J19" t="n">
-        <v>-2492069615</v>
+        <v>-1332652528</v>
       </c>
     </row>
     <row r="20">
